--- a/MIT-15.071x/Unit8-Linear.Optimization/IMRT_SimpleExample.xlsx
+++ b/MIT-15.071x/Unit8-Linear.Optimization/IMRT_SimpleExample.xlsx
@@ -1,25 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\edx\MIT-15.071x\Unit8-Linear.Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18280" windowHeight="15060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="12150" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1_p1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$14:$B$19</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1_p1!$B$14:$B$19</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$14:$B$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1_p1!$B$14:$B$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$25:$B$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1_p1!$B$25:$B$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$29</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1_p1!$B$29</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$18</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$A$22</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1_p1!$A$22</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$25:$D$28</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1_p1!$D$25:$D$28</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$29</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet1_p1!$D$29</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>IMRT Example</t>
   </si>
@@ -101,17 +173,25 @@
   </si>
   <si>
     <t>Voxel 5 (spinal cord) max dose 5</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,8 +199,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,10 +294,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -538,27 +633,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -622,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -654,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -686,7 +781,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -718,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -750,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -782,12 +877,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -795,51 +890,66 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="B14" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="3">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="3">
+        <v>3.5000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f>SUMPRODUCT(B14:B19,B5:B10) + SUMPRODUCT(B14:B19,D5:D10) + SUMPRODUCT(B14:B19,F5:F10)+SUMPRODUCT(B14:B19,G5:G10) + SUMPRODUCT(B14:B19,J5:J10)</f>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -853,47 +963,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="5">
+        <f>SUMPRODUCT(B14:B19,C5:C10)</f>
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="5">
+        <f>SUMPRODUCT(B14:B19,E5:E10)</f>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="5">
+        <f>SUMPRODUCT(B14:B19,H5:H10)</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="5">
+        <f>SUMPRODUCT(B14:B19,I5:I10)</f>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <f>SUMPRODUCT(B14:B19,F5:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -901,4 +1047,425 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.6666666666666661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.5000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f>SUMPRODUCT(B14:B19,B5:B10) + SUMPRODUCT(B14:B19,D5:D10) + SUMPRODUCT(B14:B19,F5:F10)+SUMPRODUCT(B14:B19,G5:G10) + SUMPRODUCT(B14:B19,J5:J10)</f>
+        <v>22.166666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <f>SUMPRODUCT(B14:B19,C5:C10)</f>
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <f>SUMPRODUCT(B14:B19,E5:E10)</f>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5">
+        <f>SUMPRODUCT(B14:B19,H5:H10)</f>
+        <v>7.5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5">
+        <f>SUMPRODUCT(B14:B19,I5:I10)</f>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5">
+        <f>SUMPRODUCT(B14:B19,F5:F10)</f>
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>22.75-A22</f>
+        <v>0.5833333333333357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/MIT-15.071x/Unit8-Linear.Optimization/IMRT_SimpleExample.xlsx
+++ b/MIT-15.071x/Unit8-Linear.Optimization/IMRT_SimpleExample.xlsx
@@ -9,87 +9,125 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="12150" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="12150" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1_p1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1_p2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$14:$B$19</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1_p1!$B$14:$B$19</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet1_p2!$B$14:$B$19</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$14:$B$19</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1_p1!$B$14:$B$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet1_p2!$B$14:$B$19</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$25:$B$28</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1_p1!$B$25:$B$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet1_p2!$B$25:$B$28</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$29</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Sheet1_p1!$B$29</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet1_p2!$B$29</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$A$22</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1_p1!$A$22</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet1_p2!$A$22</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$25:$D$28</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1_p1!$D$25:$D$28</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Sheet1_p2!$D$25:$D$28</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$29</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">Sheet1_p1!$D$29</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Sheet1_p2!$D$29</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -101,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>IMRT Example</t>
   </si>
@@ -1053,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1468,4 +1506,426 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.5000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <f>SUMPRODUCT(B14:B19,B5:B10) + SUMPRODUCT(B14:B19,D5:D10) +5*SUMPRODUCT(B14:B19,F5:F10) +SUMPRODUCT(B14:B19,G5:G10) + SUMPRODUCT(B14:B19,J5:J10)</f>
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <f>SUMPRODUCT(B14:B19,C5:C10)</f>
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <f>SUMPRODUCT(B14:B19,E5:E10)</f>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5">
+        <f>SUMPRODUCT(B14:B19,H5:H10)</f>
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5">
+        <f>SUMPRODUCT(B14:B19,I5:I10)</f>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5">
+        <f>SUMPRODUCT(B14:B19,F5:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>22.75-A22</f>
+        <v>-20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>